--- a/excel/출고요청서_목록.xlsx
+++ b/excel/출고요청서_목록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1336221c1362fba5/바탕 화면/지출결의서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mescius-sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{3E9E5F59-AAB4-406B-A5AA-1EFC4F591D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1F3982-D2EE-4843-850E-3D9149555941}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C10EB9-DEE6-439F-8169-AE8790901D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{052947E0-88FC-44D9-A2E9-EA9433BFDA19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>수주번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출고요청서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합적조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +133,14 @@
   </si>
   <si>
     <t>긴급/왕복/세대반입여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상차관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송내역서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -214,13 +210,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +268,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,95 +648,92 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
